--- a/test.xlsx
+++ b/test.xlsx
@@ -1,41 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralleti/Downloads/Setouchi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE22D0-D606-0845-A04F-8AF7F5C412FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>本社は瀬戸内海を一望できる位置にあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,81 +67,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,27 +372,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="4" width="60.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
+    <row r="1" spans="1:4" ht="84" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="84" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="70" customHeight="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="70" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="70" customHeight="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="70" customHeight="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="84" customHeight="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,54 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralleti/Downloads/Setouchi/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE22D0-D606-0845-A04F-8AF7F5C412FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>本社は瀬戸内海を一望できる位置にあります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,24 +53,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,8 +417,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -381,49 +430,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="4" width="60.83203125" customWidth="1"/>
+    <col width="60.83203125" customWidth="1" min="2" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="84" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" ht="84" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2026年３月期の通期連結業績予想につきましては、米国政府の関税政策の動向などを慎重に見極めるため、未
+定としておりましたが、現時点で入手可能な情報や予測を踏まえ、上記の通り連結業績予想を算定しましたので公
+表するものであります。</t>
+        </is>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="84" customHeight="1">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="70" customHeight="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="70" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="70" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="70" customHeight="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="84" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="84" customHeight="1">
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="70" customHeight="1">
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="70" customHeight="1">
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+    </row>
+    <row r="5" ht="70" customHeight="1">
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="70" customHeight="1">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="84" customHeight="1">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,40 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralleti/Downloads/Setouchi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277F27E-4F7F-304C-8E1D-8DD69E9C58CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2360" yWindow="2980" windowWidth="28800" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>2026年３月期の通期連結業績予想につきましては、米国政府の関税政策の動向などを慎重に見極めるため、未 定としておりましたが、現時点で入手可能な情報や予測を踏まえ、上記の通り連結業績予想を算定しましたので公 表するものであります。</t>
+  </si>
+  <si>
+    <t>As for the consolidated earnings forecast for the fiscal year ending March 2026, we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policy trends. However, based on the information and projections currently available, we have calculated the consolidated earnings forecast as stated above and hereby announce it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当連結会計年度後１年間の設備投資計画につきましては、米国政府の関税政策の動向など、当社グループを取り巻く事業環境は先行き不透明な状況が続くと見込まれることから未定であります。
+---
+The capital investment plan for the fiscal year ending March 31, 2026 is yet to be determined, as the business environment surrounding the Group is expected to remain uncertain due to factors such as the U.S. government's tariff policies.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、米国政府による自動車及び自動車部品等への追加関税については、両国政府間で交渉が継続されており、現時点で合理的な業績影響を精緻に見積もることは極めて困難であると判断しております。今後、追加関税の影響が長期化し、当社が講じる必要な対応策を超えて負担が発生した場合には、当社グループの経営成績と財政状態に悪影響を及ぼす可能性があります。
+---
+The Group believes that it is extremely difficult, at this point, to reasonably estimate the accurate impacts of the United States government’s additional tariffs on automobile and automobile parts on the Group’s business results amid ongoing negotiations between the United States and Japanese governments. In the event that the prolonged impacts of the additional tariffs cause burdens that exceed the measures the Group can take, the Group’s business results and financial position could be adversely affected.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「2026年３月期の通期連結業績予想」→「consolidated earnings forecast for the fiscal year ending March 2026」と訳しました。「未定としておりましたが」については、以前は未定だったことを示すため「we had previously left it undecided」としました。「米国政府の関税政策の動向などを慎重に見極めるため」は「in order to carefully assess factors such as the U.S. government’s tariff policy trends」と訳し、背景理由を明確化しました。「現時点で入手可能な情報や予測を踏まえ」は「based on the information and projections currently available」と自然な表現にしました。「公表するものであります」は「hereby announce it」と公式な文体を維持しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、本文中の将来に関する事項は、本報告書提出日時点において判断したものであります。
+---
+Note: The forward-looking statements in this section are based on the judgments of the Group as of the issue date of this report. As such, the statements may differ from the actual results and their achievements are not guaranteed in any way.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,84 +97,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,65 +404,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="60.83203125" customWidth="1" min="2" max="4"/>
+    <col min="1" max="9" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="84" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2026年３月期の通期連結業績予想につきましては、米国政府の関税政策の動向などを慎重に見極めるため、未
-定としておりましたが、現時点で入手可能な情報や予測を踏まえ、上記の通り連結業績予想を算定しましたので公
-表するものであります。</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+    <row r="1" spans="1:9" ht="350" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="84" customHeight="1">
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
+    <row r="2" spans="1:9" ht="84" customHeight="1">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3" ht="70" customHeight="1">
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
+    <row r="3" spans="1:9" ht="70" customHeight="1">
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="70" customHeight="1">
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-    </row>
-    <row r="5" ht="70" customHeight="1">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="70" customHeight="1">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="84" customHeight="1">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-    </row>
+    <row r="4" spans="1:9" ht="70" customHeight="1"/>
+    <row r="5" spans="1:9" ht="70" customHeight="1"/>
+    <row r="6" spans="1:9" ht="70" customHeight="1"/>
+    <row r="7" spans="1:9" ht="84" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralleti/Downloads/Setouchi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m242054\Downloads\翻訳チェック\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277F27E-4F7F-304C-8E1D-8DD69E9C58CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11319173-121E-4696-AE37-36BBD3BBC22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2980" windowWidth="28800" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,42 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>2026年３月期の通期連結業績予想につきましては、米国政府の関税政策の動向などを慎重に見極めるため、未 定としておりましたが、現時点で入手可能な情報や予測を踏まえ、上記の通り連結業績予想を算定しましたので公 表するものであります。</t>
-  </si>
-  <si>
-    <t>As for the consolidated earnings forecast for the fiscal year ending March 2026, we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policy trends. However, based on the information and projections currently available, we have calculated the consolidated earnings forecast as stated above and hereby announce it.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当連結会計年度後１年間の設備投資計画につきましては、米国政府の関税政策の動向など、当社グループを取り巻く事業環境は先行き不透明な状況が続くと見込まれることから未定であります。
----
-The capital investment plan for the fiscal year ending March 31, 2026 is yet to be determined, as the business environment surrounding the Group is expected to remain uncertain due to factors such as the U.S. government's tariff policies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なお、米国政府による自動車及び自動車部品等への追加関税については、両国政府間で交渉が継続されており、現時点で合理的な業績影響を精緻に見積もることは極めて困難であると判断しております。今後、追加関税の影響が長期化し、当社が講じる必要な対応策を超えて負担が発生した場合には、当社グループの経営成績と財政状態に悪影響を及ぼす可能性があります。
----
-The Group believes that it is extremely difficult, at this point, to reasonably estimate the accurate impacts of the United States government’s additional tariffs on automobile and automobile parts on the Group’s business results amid ongoing negotiations between the United States and Japanese governments. In the event that the prolonged impacts of the additional tariffs cause burdens that exceed the measures the Group can take, the Group’s business results and financial position could be adversely affected.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「2026年３月期の通期連結業績予想」→「consolidated earnings forecast for the fiscal year ending March 2026」と訳しました。「未定としておりましたが」については、以前は未定だったことを示すため「we had previously left it undecided」としました。「米国政府の関税政策の動向などを慎重に見極めるため」は「in order to carefully assess factors such as the U.S. government’s tariff policy trends」と訳し、背景理由を明確化しました。「現時点で入手可能な情報や予測を踏まえ」は「based on the information and projections currently available」と自然な表現にしました。「公表するものであります」は「hereby announce it」と公式な文体を維持しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なお、本文中の将来に関する事項は、本報告書提出日時点において判断したものであります。
----
-Note: The forward-looking statements in this section are based on the judgments of the Group as of the issue date of this report. As such, the statements may differ from the actual results and their achievements are not guaranteed in any way.</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,50 +379,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="60.83203125" customWidth="1"/>
+    <col min="1" max="4" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="350" customHeight="1">
+    <row r="1" spans="1:4" ht="349.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="84" customHeight="1">
+    <row r="2" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="70" customHeight="1">
+    <row r="3" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="70" customHeight="1"/>
-    <row r="5" spans="1:9" ht="70" customHeight="1"/>
-    <row r="6" spans="1:9" ht="70" customHeight="1"/>
-    <row r="7" spans="1:9" ht="84" customHeight="1"/>
+    <row r="4" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,27 +2,61 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m242054\Downloads\翻訳チェック\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11319173-121E-4696-AE37-36BBD3BBC22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B2FCD-CFA3-444D-A668-CDDE98F0E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>2026年３月期の通期連結業績予想につきましては、米国政府の関税政策の動向などを慎重に見極めるため、未 定としておりましたが、現時点で入手可能な情報や予測を踏まえ、上記の通り連結業績予想を算定しましたので公 表するものであります。</t>
+  </si>
+  <si>
+    <t>Regarding the consolidated earnings forecast for the fiscal year ending March 2026, we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policy trends. However, based on the information and projections currently available, we have calculated the consolidated earnings forecast as stated above and hereby announce it.</t>
+  </si>
+  <si>
+    <t>「通期連結業績予想」は「consolidated earnings forecast」と訳しました。「米国政府の関税政策の動向などを慎重に見極めるため、未定としておりましたが」は、背景説明として「we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policy trends」と自然な英語にしました。「現時点で入手可能な情報や予測を踏まえ」は「based on the information and projections currently available」としました。「公表するものであります」は「hereby announce it」と公式文書調にしました。</t>
+  </si>
+  <si>
+    <t>なお、米国政府による自動車及び自動車部品等への追加関税については、両国政府間で交渉が継続されており、現時点で合理的な業績影響を精緻に見積もることは極めて困難であると判断しております。今後、追加関税の影響が長期化し、当社が講じる必要な対応策を超えて負担が発生した場合には、当社グループの経営成績と財政状態に悪影響を及ぼす可能性があります。
+---
+The Group believes that it is extremely difficult, at this point, to reasonably estimate the accurate impacts of the United States government’s additional tariffs on automobile and automobile parts on the Group’s business results amid ongoing negotiations between the United States and Japanese governments.</t>
+  </si>
+  <si>
+    <t>当連結会計年度後１年間の設備投資計画につきましては、米国政府の関税政策の動向など、当社グループを取り巻く事業環境は先行き不透明な状況が続くと見込まれることから未定であります。
+---
+The capital investment plan for the fiscal year ending March 31, 2026 is yet to be determined, as the business environment surrounding the Group is expected to remain uncertain due to factors such as the U.S. government's tariff policies.</t>
+  </si>
+  <si>
+    <t>当社グループは、日本を始め世界各地域で製品を販売しており、米国、欧州及び発展途上市場や新興市場を含む海外市場において事業活動を行っています。これらの海外市場での事業展開には以下のようなリスクが内在しており、当該リスクの顕在化により、当社グループの経営成績と財政状態に悪影響を及ぼす可能性があります。
+---
+In these international markets, the Group is subject to the following potential risks, which could affect the Group’s business results and financial position if manifested:</t>
   </si>
 </sst>
 </file>
@@ -73,10 +107,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -379,35 +413,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="60.77734375" customWidth="1"/>
+    <col min="1" max="9" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="349.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m242054\Downloads\翻訳チェック\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B2FCD-CFA3-444D-A668-CDDE98F0E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FFE016-CF15-4B37-8A4E-865910592105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,30 +33,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2026年３月期の通期連結業績予想につきましては、米国政府の関税政策の動向などを慎重に見極めるため、未 定としておりましたが、現時点で入手可能な情報や予測を踏まえ、上記の通り連結業績予想を算定しましたので公 表するものであります。</t>
   </si>
   <si>
-    <t>Regarding the consolidated earnings forecast for the fiscal year ending March 2026, we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policy trends. However, based on the information and projections currently available, we have calculated the consolidated earnings forecast as stated above and hereby announce it.</t>
-  </si>
-  <si>
-    <t>「通期連結業績予想」は「consolidated earnings forecast」と訳しました。「米国政府の関税政策の動向などを慎重に見極めるため、未定としておりましたが」は、背景説明として「we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policy trends」と自然な英語にしました。「現時点で入手可能な情報や予測を踏まえ」は「based on the information and projections currently available」としました。「公表するものであります」は「hereby announce it」と公式文書調にしました。</t>
-  </si>
-  <si>
-    <t>なお、米国政府による自動車及び自動車部品等への追加関税については、両国政府間で交渉が継続されており、現時点で合理的な業績影響を精緻に見積もることは極めて困難であると判断しております。今後、追加関税の影響が長期化し、当社が講じる必要な対応策を超えて負担が発生した場合には、当社グループの経営成績と財政状態に悪影響を及ぼす可能性があります。
+    <t>As for the consolidated earnings forecast for the fiscal year ending March 2026, we had previously left it undecided in order to carefully assess factors such as the U.S. government’s tariff policies. However, based on the information and projections currently available, we have calculated the consolidated earnings forecast as stated above and hereby announce it.</t>
+  </si>
+  <si>
+    <t>「未定としておりましたが」→参照ペアの『yet to be determined』を参考にしつつ、文脈に合わせて『had previously left it undecided』と表現。「米国政府の関税政策の動向などを慎重に見極めるため」→参照ペアの『due to factors such as the U.S. government’s tariff policies』を活用。「現時点で入手可能な情報や予測を踏まえ」→自然な英語で『based on the information and projections currently available』と訳出。</t>
+  </si>
+  <si>
+    <t>当連結会計年度後１年間の設備投資計画につきましては、米国政府の関税政策の動向など、当社グループを取り 巻く事業環境は先行き不透明な状況が続くと見込まれることから未定であります。
+---
+The capital investment plan for the fiscal year ending March 31, 2026 is yet to be determined, as the business environment surrounding the Group is expected to remain uncertain due to factors such as the U.S. government's tariff policies.</t>
+  </si>
+  <si>
+    <t>なお、米国政府による自動車及び自動車部品等への追加関税については、両国政府間で交渉が継続されており、 現時点で合理的な業績影響を精緻に見積もることは極めて困難であると判断しております。
 ---
 The Group believes that it is extremely difficult, at this point, to reasonably estimate the accurate impacts of the United States government’s additional tariffs on automobile and automobile parts on the Group’s business results amid ongoing negotiations between the United States and Japanese governments.</t>
   </si>
   <si>
-    <t>当連結会計年度後１年間の設備投資計画につきましては、米国政府の関税政策の動向など、当社グループを取り巻く事業環境は先行き不透明な状況が続くと見込まれることから未定であります。
----
-The capital investment plan for the fiscal year ending March 31, 2026 is yet to be determined, as the business environment surrounding the Group is expected to remain uncertain due to factors such as the U.S. government's tariff policies.</t>
-  </si>
-  <si>
-    <t>当社グループは、日本を始め世界各地域で製品を販売しており、米国、欧州及び発展途上市場や新興市場を含む海外市場において事業活動を行っています。これらの海外市場での事業展開には以下のようなリスクが内在しており、当該リスクの顕在化により、当社グループの経営成績と財政状態に悪影響を及ぼす可能性があります。
----
-In these international markets, the Group is subject to the following potential risks, which could affect the Group’s business results and financial position if manifested:</t>
+    <t>今後、追加関税の影響が長期化し、当社が講じる必要な対応策を超えて負担が発生した場合には、当社グループの経営成績と財政状態に 悪影響を及ぼす可能性があります。
+---
+In the event that the prolonged impacts of the additional tariffs cause burdens that exceed the measures the Group can take, the Group’s business results and financial position could be adversely affected.</t>
+  </si>
+  <si>
+    <t>なお、繰延税金資産の回収可能性については、翌連結会計年度において、米国政府による追加関税の影響が一定期 間継続する仮定のもと、回収可能性の判断を行っております。
+---
+The recoverability of deferred tax assets was assessed based on the assumptions that the impact of additional tariffs imposed by the U.S. government will continue for a certain period in the next fiscal year.</t>
+  </si>
+  <si>
+    <t>追加関税の影響が長期化するなどにより、仮定に重要な変更が生じた場合には、繰延税金資産の額が減額される可能性があります。
+---
+In the event of significant changes to the assumptions, such as prolonged impact of additional tariffs, the amount of deferred tax assets may be reduced.</t>
+  </si>
+  <si>
+    <t>現在、当社は2026年３月期までの財務目標達成に向けて中期経営計画の取り組みを推進しておりますが、各国の 環境規制動向、社会インフラ整備をはじめ、電源構成の変化、そして消費者の価値観の多様化など、経営を取り巻 く環境の不確実性が高まっていることを受け、視点を2030年まで延ばし、世界の潮流を想定した経営方針と主要な 取り組みを以下のとおり定めております。
+---
+Under our Medium-term Management Plan, we have been promoting initiatives to achieve our financial targets for the fiscal year ending March 2026.</t>
+  </si>
+  <si>
+    <t>現在、当社は2026年３月期までの財務目標達成に向けて中期経営計画の取り組みを推進しておりますが、各国の 環境規制動向、社会インフラ整備をはじめ、電源構成の変化、そして消費者の価値観の多様化など、経営を取り巻 く環境の不確実性が高まっていることを受け、視点を2030年まで延ばし、世界の潮流を想定した経営方針と主要な 取り組みを以下のとおり定めております。
+---
+In view of the increasing uncertainty of the business environment including the growing trend toward the introduction of environmental regulations in various countries, improvements in social infrastructure, changes in the power supply mix, and the diversification of customer values, we extended our outlook until the year 2030 and set forth our new management policy and main initiatives as follows based on world trends.</t>
+  </si>
+  <si>
+    <t>※文中における将来に関する事項につきましては、本報告書提出時点において当社グループが判断した一定の前提に基づいたものでありま す。
+---
+Note: The forward-looking statements in this section are based on the judgments of the Group as of the issue date of this report.</t>
   </si>
 </sst>
 </file>
@@ -105,11 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,48 +444,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="60.77734375" customWidth="1"/>
+    <col min="1" max="1" width="60.77734375" style="2" customWidth="1"/>
+    <col min="2" max="13" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="349.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
